--- a/textbook_2024/dataset/GWAS_sample.xlsx
+++ b/textbook_2024/dataset/GWAS_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Desktop\workspace\lecture\textbook_2024\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3C831-CD6F-4841-B7C1-8DAC0916256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C672696-7E7F-43A4-AD35-751510B3C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="3420" windowWidth="21600" windowHeight="12675" xr2:uid="{36AA85CF-7122-49AE-B286-52B095B963EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -165,143 +165,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>葉の長さ</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>SNP1(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>塩基</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>エンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>SNP1(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>SNP8(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>塩基</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>エンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>SNP8(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
+    <t>SNP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNP8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leaf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -309,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +215,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -730,42 +594,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4240A01-F300-4BD7-AE19-61C09C24336D}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -775,19 +633,11 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1">
-        <f>IF(C2="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
-        <f>IF(E2="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -797,550 +647,347 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
-        <f>IF(C3="A", 0, 1)</f>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <f>IF(E3="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B4" s="1">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <f>IF(C4="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
-        <f>IF(E4="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <f>IF(C5="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <f>IF(E5="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <f>IF(C6="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
-        <f>IF(E6="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>19.3</v>
+        <v>28.5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <f>IF(C7="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <f>IF(E7="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>21.1</v>
+        <v>30.1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <f>IF(C8="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <f>IF(E8="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>21.7</v>
+        <v>15.7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
-        <f>IF(C9="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <f>IF(E9="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>26</v>
+        <v>28.9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <f>IF(C10="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1">
-        <f>IF(E10="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>30.3</v>
+        <v>12.3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <f>IF(C11="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <f>IF(E11="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>19.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <f>IF(C12="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <f>IF(E12="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
-        <f>IF(C13="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <f>IF(E13="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B21" s="1">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <f>IF(C14="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
-        <f>IF(E14="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <f>IF(C15="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1">
-        <f>IF(E15="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B22" s="1">
         <v>25.1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <f>IF(C16="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1">
-        <f>IF(E16="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B23" s="1">
         <v>29.7</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(C17="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1">
-        <f>IF(E17="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <f>IF(C18="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1">
-        <f>IF(E18="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B24" s="1">
         <v>12.1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
-        <f>IF(C19="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1">
-        <f>IF(E19="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B25" s="1">
         <v>28.7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1">
-        <f>IF(C20="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1">
-        <f>IF(E20="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
         <v>16.8</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1">
-        <f>IF(C21="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1">
-        <f>IF(E21="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1">
-        <f>IF(C22="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1">
-        <f>IF(E22="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>28.9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <f>IF(C23="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1">
-        <f>IF(E23="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <f>IF(C24="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="1">
-        <f>IF(E24="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1">
-        <f>IF(C25="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1">
-        <f>IF(E25="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <f>IF(C26="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1">
-        <f>IF(E26="A", 0, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>11.6</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1">
-        <f>IF(C27="A", 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1">
-        <f>IF(E27="A", 0, 1)</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
-    <sortCondition ref="A1:A27"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/textbook_2024/dataset/GWAS_sample.xlsx
+++ b/textbook_2024/dataset/GWAS_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Desktop\workspace\lecture\textbook_2024\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C672696-7E7F-43A4-AD35-751510B3C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A0D7DF-4156-421D-B6FF-2438A2EE1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="3420" windowWidth="21600" windowHeight="12675" xr2:uid="{36AA85CF-7122-49AE-B286-52B095B963EE}"/>
+    <workbookView xWindow="4305" yWindow="8295" windowWidth="22965" windowHeight="12675" xr2:uid="{36AA85CF-7122-49AE-B286-52B095B963EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="46">
   <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +174,54 @@
   </si>
   <si>
     <t>Leaf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNP9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNP10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNP2</t>
+  </si>
+  <si>
+    <t>SNP3</t>
+  </si>
+  <si>
+    <t>SNP4</t>
+  </si>
+  <si>
+    <t>SNP5</t>
+  </si>
+  <si>
+    <t>SNP6</t>
+  </si>
+  <si>
+    <t>SNP7</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4240A01-F300-4BD7-AE19-61C09C24336D}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -605,11 +653,12 @@
     <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -620,10 +669,34 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -634,10 +707,34 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -648,346 +745,949 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="1">
         <v>14.8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B9" s="1">
         <v>21.7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B13" s="1">
         <v>14.3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B15" s="1">
         <v>28.5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B18" s="1">
         <v>30.1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B22" s="1">
         <v>15.7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B23" s="1">
         <v>28.9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B24" s="1">
         <v>12.3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B26" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B27" s="1">
         <v>11.6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>21.1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>30.3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>25.1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1">
-        <v>16.899999999999999</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition ref="A1:A27"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
